--- a/Depth Damaged States Attenuation Model - Orientation =  30, Width = 2, Circumference = Outside, Axial Location = 235/PCs at R'.xlsx
+++ b/Depth Damaged States Attenuation Model - Orientation =  30, Width = 2, Circumference = Outside, Axial Location = 235/PCs at R'.xlsx
@@ -396,10 +396,10 @@
         <v>7000</v>
       </c>
       <c r="B2">
-        <v>0.1873703674172025</v>
+        <v>0.009057032445356359</v>
       </c>
       <c r="C2">
-        <v>-0.1426261387022263</v>
+        <v>0.2371322208235792</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>7333.333333333333</v>
       </c>
       <c r="B3">
-        <v>0.2862523808465224</v>
+        <v>-0.0707973000599024</v>
       </c>
       <c r="C3">
-        <v>0.07018675167676404</v>
+        <v>0.3409380406977133</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>7666.666666666667</v>
       </c>
       <c r="B4">
-        <v>0.4193783242042304</v>
+        <v>0.0172660329800893</v>
       </c>
       <c r="C4">
-        <v>-0.08815448715274399</v>
+        <v>0.3563682826067976</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>0.5574457240804834</v>
+        <v>0.1842103288777725</v>
       </c>
       <c r="C5">
-        <v>-0.2045314469389901</v>
+        <v>0.06221521385363245</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>8333.333333333334</v>
       </c>
       <c r="B6">
-        <v>0.1943933745172501</v>
+        <v>0.6674371044632009</v>
       </c>
       <c r="C6">
-        <v>-0.5737913219454164</v>
+        <v>0.1295006050101185</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>8666.666666666666</v>
       </c>
       <c r="B7">
-        <v>0.1033703285316284</v>
+        <v>0.3709289385122904</v>
       </c>
       <c r="C7">
-        <v>-0.2601250720785905</v>
+        <v>0.1580800546445858</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>9000</v>
       </c>
       <c r="B8">
-        <v>0.3411662245840055</v>
+        <v>-0.08485488332187253</v>
       </c>
       <c r="C8">
-        <v>0.2197134521567333</v>
+        <v>0.40149525222309</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>9333.333333333334</v>
       </c>
       <c r="B9">
-        <v>0.1707737669771668</v>
+        <v>-0.3803102403821008</v>
       </c>
       <c r="C9">
-        <v>0.5064228300072273</v>
+        <v>0.310282407843002</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>9666.666666666666</v>
       </c>
       <c r="B10">
-        <v>0.1752938718632518</v>
+        <v>-0.1370945519480693</v>
       </c>
       <c r="C10">
-        <v>0.2707935954285396</v>
+        <v>0.01737396179205468</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>0.136775797196684</v>
+        <v>0.2654318459850528</v>
       </c>
       <c r="C11">
-        <v>-0.07406865830002533</v>
+        <v>0.3833718108625055</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10333.33333333333</v>
       </c>
       <c r="B12">
-        <v>-0.1494633351611918</v>
+        <v>0.1925992380236453</v>
       </c>
       <c r="C12">
-        <v>-0.1970316412125996</v>
+        <v>0.1410302399371223</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10666.66666666667</v>
       </c>
       <c r="B13">
-        <v>-0.09146647602613683</v>
+        <v>0.2671110743073307</v>
       </c>
       <c r="C13">
-        <v>-0.2113124267045665</v>
+        <v>-0.1864056215647717</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11000</v>
       </c>
       <c r="B14">
-        <v>-0.329939017171479</v>
+        <v>0.1524756792599838</v>
       </c>
       <c r="C14">
-        <v>-0.11333999522403</v>
+        <v>-0.3977223039149543</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>11333.33333333333</v>
       </c>
       <c r="B15">
-        <v>-0.09412995459120528</v>
+        <v>0.01643676288178535</v>
       </c>
       <c r="C15">
-        <v>0.02394658792996937</v>
+        <v>0.1562223533630081</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>11666.66666666667</v>
       </c>
       <c r="B16">
-        <v>0.03099786462912964</v>
+        <v>-0.06110911106146517</v>
       </c>
       <c r="C16">
-        <v>0.1704170442339495</v>
+        <v>0.1128511053235028</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>12000</v>
       </c>
       <c r="B17">
-        <v>0.05893800627375433</v>
+        <v>0.0288488885040994</v>
       </c>
       <c r="C17">
-        <v>0.1368815204416857</v>
+        <v>-0.01381828810323762</v>
       </c>
     </row>
   </sheetData>
